--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="E8" s="3">
         <v>892700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>886900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>814100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>780500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>758200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>634100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>734200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>874400</v>
+      </c>
+      <c r="E9" s="3">
         <v>636200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>634200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>567600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>532600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>459000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>526600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>342200</v>
+      </c>
+      <c r="E10" s="3">
         <v>256500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>252700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>246500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>218600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>225600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>175100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>207600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +886,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="E17" s="3">
         <v>785300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>777900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>717000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>706300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>668200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>588200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>664200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E18" s="3">
         <v>107400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>109000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>97100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>90000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>45900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>70000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,144 +1051,159 @@
         <v>3500</v>
       </c>
       <c r="E20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E21" s="3">
         <v>141400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>131600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>110000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>104800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E22" s="3">
         <v>22000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>88900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>87200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>68800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>83400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E24" s="3">
         <v>17800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>71100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>51500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>66300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>46700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>69500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>65000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1435,63 @@
         <v>-3500</v>
       </c>
       <c r="E32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>69500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>65000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>69500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>65000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,37 +1618,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>672800</v>
+      </c>
+      <c r="E41" s="3">
         <v>328600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>618500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>566400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>611300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>487500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>432200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>604500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1584,130 +1674,145 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>785800</v>
+      </c>
+      <c r="E43" s="3">
         <v>560900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>558000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>483900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>432000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>472500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>427200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>464000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1106600</v>
+      </c>
+      <c r="E44" s="3">
         <v>808200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>759200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>722200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>690300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>677200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>679700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>655300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E45" s="3">
         <v>138800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>153900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>117700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>115400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>136600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2722800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1836500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2084200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1926400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1851300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1752600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1675700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1834400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,66 +1840,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="E48" s="3">
         <v>585500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>605900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>614500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>628900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>624100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>634300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>641700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6468400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1998200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2016700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2024200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2048500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2043800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2041200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2046800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +1968,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E52" s="3">
         <v>64800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>60300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10281600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4485000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4773700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4627200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4589000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4479400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4408100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4585900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,57 +2094,61 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>643800</v>
+      </c>
+      <c r="E57" s="3">
         <v>512700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>461400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>412300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>360100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>363800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>342600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>340300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>230900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>230800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>231000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>230600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -2022,124 +2156,139 @@
       <c r="K58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>446600</v>
+      </c>
+      <c r="E59" s="3">
         <v>255200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>246500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>230900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>236400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>235200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>239400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1095300</v>
+      </c>
+      <c r="E60" s="3">
         <v>768900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>938800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>871000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>822000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>830800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>578400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>580300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1913600</v>
+      </c>
+      <c r="E61" s="3">
         <v>647300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>789000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>786900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>840400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>840200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1125100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1364300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>922600</v>
+      </c>
+      <c r="E62" s="3">
         <v>341100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>349400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>351500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>349600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>356500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>357600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>341200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3969700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1790200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2108700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2043100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2044600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2057500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2089000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2315300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2186400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2130300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2064100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2010700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1972500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1919700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1903800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6311900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2694800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2665000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2584100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2544400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2421900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2319100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2270600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>69500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>65000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30500</v>
+        <v>77800</v>
       </c>
       <c r="E83" s="3">
         <v>30500</v>
       </c>
       <c r="F83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G83" s="3">
         <v>31800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E89" s="3">
         <v>121500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>125500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>120300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-138200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,16 +3211,17 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-12200</v>
       </c>
       <c r="F96" s="3">
         <v>-12200</v>
@@ -2999,16 +3233,19 @@
         <v>-12200</v>
       </c>
       <c r="I96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-12100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3337,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>383200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-398700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-76700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-255500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>188700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>25900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>344200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-289900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>52100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>123800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-172300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>273100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1298500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1216600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>892700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>886900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>814100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>780500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>758200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>634100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>734200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>863800</v>
+      </c>
+      <c r="E9" s="3">
         <v>874400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>636200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>634200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>567600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>561900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>532600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>459000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>526600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>434700</v>
+      </c>
+      <c r="E10" s="3">
         <v>342200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>256500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>252700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>246500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>218600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>225600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>175100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>207600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E14" s="3">
         <v>42100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1128600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1197700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>785300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>777900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>717000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>706300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>668200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>588200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>664200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E18" s="3">
         <v>18900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>107400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>109000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>97100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>90000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>45900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
         <v>3500</v>
       </c>
       <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>131600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>110000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>104800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E23" s="3">
         <v>8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>87200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>68800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>60600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E24" s="3">
         <v>11300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>51500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>66300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>79600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>65600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>65000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,31 +1388,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3500</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
         <v>-3500</v>
       </c>
       <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>79600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>65000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>79600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>65000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,200 +1705,219 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>624700</v>
+      </c>
+      <c r="E41" s="3">
         <v>672800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>328600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>618500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>566400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>611300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>487500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>432200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>604500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>832200</v>
+      </c>
+      <c r="E43" s="3">
         <v>785800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>560900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>558000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>483900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>432000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>472500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>427200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>464000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1106600</v>
+        <v>1336900</v>
       </c>
       <c r="E44" s="3">
+        <v>1192400</v>
+      </c>
+      <c r="F44" s="3">
         <v>808200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>759200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>722200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>690300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>677200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>679700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>655300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E45" s="3">
         <v>157600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>138800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>148500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>153900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>117700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>115400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>136600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2722800</v>
+        <v>2972400</v>
       </c>
       <c r="E46" s="3">
+        <v>2808600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1836500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2084200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1926400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1851300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1752600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1675700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1834400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,72 +1948,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>969200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1020900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>585500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>605900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>614500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>628900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>624100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>634300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>641700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6454000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6468400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1998200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2016700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2024200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2048500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2043800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2041200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2046800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69500</v>
+        <v>75500</v>
       </c>
       <c r="E52" s="3">
+        <v>103300</v>
+      </c>
+      <c r="F52" s="3">
         <v>64800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>60300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10281600</v>
+        <v>10471100</v>
       </c>
       <c r="E54" s="3">
+        <v>10367400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4485000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4773700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4627200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4589000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4479400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4408100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4585900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,63 +2225,67 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>641300</v>
+      </c>
+      <c r="E57" s="3">
         <v>643800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>512700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>461400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>412300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>360100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>363800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>342600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>340300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>230900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>230800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>231000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>230600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
@@ -2159,136 +2293,151 @@
       <c r="L58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>412100</v>
+      </c>
+      <c r="E59" s="3">
         <v>446600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>255200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>246500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>227900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>230900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>236400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>235200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>239400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1056600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1095300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>768900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>938800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>871000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>822000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>830800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>578400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>580300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2057400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1913600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>647300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>789000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>786900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>840400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>840200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1125100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1364300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>922600</v>
+        <v>933300</v>
       </c>
       <c r="E62" s="3">
+        <v>950300</v>
+      </c>
+      <c r="F62" s="3">
         <v>341100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>349400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>351500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>349600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>356500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>357600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>341200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3969700</v>
+        <v>4087400</v>
       </c>
       <c r="E66" s="3">
+        <v>3997400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1790200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2108700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2043100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2044600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2057500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2089000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2315300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1854500</v>
+        <v>1927500</v>
       </c>
       <c r="E72" s="3">
+        <v>1912600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2186400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2130300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2064100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2010700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1972500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1919700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1903800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6311900</v>
+        <v>6383700</v>
       </c>
       <c r="E76" s="3">
+        <v>6370000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2694800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2665000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2584100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2544400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2421900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2319100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2270600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>79600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>65000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E83" s="3">
         <v>77800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>30500</v>
       </c>
       <c r="F83" s="3">
         <v>30500</v>
       </c>
       <c r="G83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="H83" s="3">
         <v>31800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>99600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>87100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>125500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>120300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-138200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,19 +3445,20 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-297800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-12200</v>
       </c>
       <c r="G96" s="3">
         <v>-12200</v>
@@ -3236,16 +3470,19 @@
         <v>-12200</v>
       </c>
       <c r="J96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>383200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-398700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-76700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-12400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-68400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-255500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>188700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>25900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E102" s="3">
         <v>344200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-289900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>123800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>55300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-172300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>273100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1349400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1298500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1216600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>892700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>886900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>814100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>780500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>758200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>634100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>734200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>916400</v>
+      </c>
+      <c r="E9" s="3">
         <v>863800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>874400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>636200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>634200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>567600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>561900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>532600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>459000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>526600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E10" s="3">
         <v>434700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>342200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>256500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>252700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>246500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>218600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>225600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>175100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>207600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>16800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>42100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1154500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1128600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1197700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>785300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>777900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>717000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>706300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>668200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>588200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>664200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E18" s="3">
         <v>169900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>107400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>109000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>90000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3500</v>
       </c>
       <c r="F20" s="3">
         <v>3500</v>
       </c>
       <c r="G20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E21" s="3">
         <v>250200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>131600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>110000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>104800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E23" s="3">
         <v>163300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>68800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>83400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>60600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E24" s="3">
         <v>36200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E26" s="3">
         <v>127100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>81200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>67000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>51500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>66300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E27" s="3">
         <v>125600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>79600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>65600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1417,8 +1478,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-3500</v>
       </c>
       <c r="F32" s="3">
         <v>-3500</v>
       </c>
       <c r="G32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E33" s="3">
         <v>125600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>79600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>65600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E35" s="3">
         <v>125600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>79600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>65600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>702500</v>
+      </c>
+      <c r="E41" s="3">
         <v>624700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>672800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>328600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>618500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>566400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>611300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>487500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>432200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>604500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1767,157 +1857,172 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>854800</v>
+      </c>
+      <c r="E43" s="3">
         <v>832200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>785800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>560900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>558000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>483900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>432000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>472500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>427200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>464000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1388400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1336900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1192400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>808200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>759200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>722200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>690300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>677200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>679700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>655300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E45" s="3">
         <v>178600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>157600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>138800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>148500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>153900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>117700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>115400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3097500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2972400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2808600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1836500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2084200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1926400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1851300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1752600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1675700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1834400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,78 +2056,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>936400</v>
+      </c>
+      <c r="E48" s="3">
         <v>969200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1020900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>585500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>605900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>614500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>628900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>624100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>634300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>641700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6352600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6454000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6468400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1998200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2016700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2024200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2048500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2043800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2041200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2046800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E52" s="3">
         <v>75500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>56900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10458500</v>
+      </c>
+      <c r="E54" s="3">
         <v>10471100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10367400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4485000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4773700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4627200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4589000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4479400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4408100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4585900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,69 +2356,73 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>652800</v>
+      </c>
+      <c r="E57" s="3">
         <v>641300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>643800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>512700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>461400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>412300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>360100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>363800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>342600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>340300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>230900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>230800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>231000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>230600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -2296,148 +2430,163 @@
       <c r="M58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>437400</v>
+      </c>
+      <c r="E59" s="3">
         <v>412100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>446600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>255200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>246500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>227900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>230900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>236400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>235200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>239400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1120800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1056600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1095300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>768900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>938800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>871000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>822000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>830800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>578400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>580300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2132500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2057400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1913600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>647300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>789000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>786900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>840400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>840200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1125100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1364300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>889500</v>
+      </c>
+      <c r="E62" s="3">
         <v>933300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>950300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>341100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>349400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>351500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>349600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>356500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>357600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>341200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4181800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4087400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3997400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1790200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2108700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2043100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2044600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2057500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2089000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2315300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1996600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1927500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1912600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2186400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2130300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2064100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2010700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1972500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1919700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1903800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6276700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6383700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6370000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2694800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2665000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2584100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2544400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2421900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2319100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2270600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E81" s="3">
         <v>125600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>79600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>65600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E83" s="3">
         <v>77900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>30500</v>
       </c>
       <c r="G83" s="3">
         <v>30500</v>
       </c>
       <c r="H83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="I83" s="3">
         <v>31800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>99600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>125500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>120300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-138200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,22 +3679,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-297800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-12200</v>
       </c>
       <c r="H96" s="3">
         <v>-12200</v>
@@ -3473,16 +3707,19 @@
         <v>-12200</v>
       </c>
       <c r="K96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>383200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-398700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-76700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-255500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>188700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>344200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-289900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>123800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-172300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>273100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1325300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1349400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1298500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1216600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>892700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>886900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>814100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>780500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>758200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>634100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>734200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E9" s="3">
         <v>916400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>863800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>874400</v>
       </c>
-      <c r="G9" s="3">
-        <v>636200</v>
-      </c>
       <c r="H9" s="3">
-        <v>634200</v>
+        <v>622700</v>
       </c>
       <c r="I9" s="3">
+        <v>628000</v>
+      </c>
+      <c r="J9" s="3">
         <v>567600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>561900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>532600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>459000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>526600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>427300</v>
+      </c>
+      <c r="E10" s="3">
         <v>433000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>434700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>342200</v>
       </c>
-      <c r="G10" s="3">
-        <v>256500</v>
-      </c>
       <c r="H10" s="3">
-        <v>252700</v>
+        <v>270000</v>
       </c>
       <c r="I10" s="3">
+        <v>258900</v>
+      </c>
+      <c r="J10" s="3">
         <v>246500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>218600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>225600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>207600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1151400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1154500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1128600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1197700</v>
       </c>
-      <c r="G17" s="3">
-        <v>785300</v>
-      </c>
       <c r="H17" s="3">
-        <v>777900</v>
+        <v>771800</v>
       </c>
       <c r="I17" s="3">
+        <v>771700</v>
+      </c>
+      <c r="J17" s="3">
         <v>717000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>706300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>668200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>588200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>664200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E18" s="3">
         <v>194900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>169900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18900</v>
       </c>
-      <c r="G18" s="3">
-        <v>107400</v>
-      </c>
       <c r="H18" s="3">
-        <v>109000</v>
+        <v>120900</v>
       </c>
       <c r="I18" s="3">
+        <v>115200</v>
+      </c>
+      <c r="J18" s="3">
         <v>97100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3500</v>
       </c>
       <c r="G20" s="3">
         <v>3500</v>
       </c>
       <c r="H20" s="3">
-        <v>2900</v>
+        <v>25500</v>
       </c>
       <c r="I20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E21" s="3">
         <v>275600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>250200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100200</v>
       </c>
-      <c r="G21" s="3">
-        <v>141400</v>
-      </c>
       <c r="H21" s="3">
-        <v>142400</v>
+        <v>176900</v>
       </c>
       <c r="I21" s="3">
+        <v>160100</v>
+      </c>
+      <c r="J21" s="3">
         <v>131600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>110000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>104800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E22" s="3">
         <v>13400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14300</v>
       </c>
-      <c r="G22" s="3">
-        <v>22000</v>
-      </c>
       <c r="H22" s="3">
-        <v>11500</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J22" s="3">
         <v>12600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E23" s="3">
         <v>183800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>163300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8100</v>
       </c>
-      <c r="G23" s="3">
-        <v>88900</v>
-      </c>
       <c r="H23" s="3">
-        <v>100400</v>
+        <v>102400</v>
       </c>
       <c r="I23" s="3">
+        <v>106600</v>
+      </c>
+      <c r="J23" s="3">
         <v>87200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>83400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E24" s="3">
         <v>40600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
       </c>
-      <c r="G24" s="3">
-        <v>17800</v>
-      </c>
       <c r="H24" s="3">
-        <v>19200</v>
+        <v>21000</v>
       </c>
       <c r="I24" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J24" s="3">
         <v>20200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E26" s="3">
         <v>143200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>127100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
-        <v>71100</v>
-      </c>
       <c r="H26" s="3">
-        <v>81200</v>
+        <v>81400</v>
       </c>
       <c r="I26" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J26" s="3">
         <v>67000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E27" s="3">
         <v>142000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>125600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
-        <v>69500</v>
-      </c>
       <c r="H27" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="I27" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J27" s="3">
         <v>65600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,8 +1542,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3500</v>
       </c>
       <c r="G32" s="3">
         <v>-3500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2900</v>
+        <v>-25500</v>
       </c>
       <c r="I32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E33" s="3">
         <v>142000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>125600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
-        <v>69500</v>
-      </c>
       <c r="H33" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="I33" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J33" s="3">
         <v>65600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E35" s="3">
         <v>142000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>125600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
-        <v>69500</v>
-      </c>
       <c r="H35" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="I35" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J35" s="3">
         <v>65600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>723600</v>
+      </c>
+      <c r="E41" s="3">
         <v>702500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>624700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>672800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>328600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>618500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>566400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>611300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>487500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>432200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>604500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1860,169 +1950,184 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>816000</v>
+      </c>
+      <c r="E43" s="3">
         <v>854800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>832200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>785800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>560900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>558000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>483900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>432000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>472500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>427200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>464000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1361500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1388400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1336900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1192400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>808200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>759200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>722200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>690300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>677200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>679700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>655300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E45" s="3">
         <v>151800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>178600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>157600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>138800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>148500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>153900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>117700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>115400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>136600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>108900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3046100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3097500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2972400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2808600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1836500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2084200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1926400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1851300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1752600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1675700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1834400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>905900</v>
+      </c>
+      <c r="E48" s="3">
         <v>936400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>969200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1020900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>585500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>605900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>614500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>628900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>624100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>634300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>641700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6208100</v>
+      </c>
+      <c r="E49" s="3">
         <v>6352600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6454000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6468400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1998200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2016700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2024200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2048500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2043800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2041200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2046800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E52" s="3">
         <v>72000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10249000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10458500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10471100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10367400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4485000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4773700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4627200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4589000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4479400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4408100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4585900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,75 +2487,79 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>548200</v>
+      </c>
+      <c r="E57" s="3">
         <v>652800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>641300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>643800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>512700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>461400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>412300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>360100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>363800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>342600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>340300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E58" s="3">
         <v>30600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>230900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>230800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>231000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>230600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -2433,160 +2567,175 @@
       <c r="N58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>473900</v>
+      </c>
+      <c r="E59" s="3">
         <v>437400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>412100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>446600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>255200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>246500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>227900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>230900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>236400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>235200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>239400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1052800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1120800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1056600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1095300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>768900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>938800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>871000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>822000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>830800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>578400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>580300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2165200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2132500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2057400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1913600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>647300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>789000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>786900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>840400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>840200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1125100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1364300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>859200</v>
+      </c>
+      <c r="E62" s="3">
         <v>889500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>933300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>950300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>341100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>349400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>351500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>349600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>356500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>357600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>341200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4109100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4181800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4087400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3997400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1790200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2108700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2043100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2044600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2057500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2089000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2315300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2051700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1996600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1927500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1912600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2186400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2130300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2064100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2010700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1972500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1919700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1903800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6139900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6276700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6383700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6370000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2694800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2665000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2584100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2544400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2421900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2319100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2270600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E81" s="3">
         <v>142000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>125600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
-        <v>69500</v>
-      </c>
       <c r="H81" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="I81" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J81" s="3">
         <v>65600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E83" s="3">
         <v>78400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>30500</v>
       </c>
       <c r="H83" s="3">
         <v>30500</v>
       </c>
       <c r="I83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J83" s="3">
         <v>31800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E89" s="3">
         <v>110800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>99600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>125500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>86900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-138200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,25 +3913,26 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-22300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-297800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-12200</v>
       </c>
       <c r="I96" s="3">
         <v>-12200</v>
@@ -3710,16 +3944,19 @@
         <v>-12200</v>
       </c>
       <c r="L96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-12200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>383200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-398700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-255500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>188700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E102" s="3">
         <v>77800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>344200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-289900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>123800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-172300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>273100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,205 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1244700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1325300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1349400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1298500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1216600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>892700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>886900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>814100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>780500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>758200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>634100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>734200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>831100</v>
+      </c>
+      <c r="E9" s="3">
         <v>898000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>916400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>863800</v>
       </c>
-      <c r="G9" s="3">
-        <v>874400</v>
-      </c>
       <c r="H9" s="3">
+        <v>872600</v>
+      </c>
+      <c r="I9" s="3">
         <v>622700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>628000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>567600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>561900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>532600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>459000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>526600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E10" s="3">
         <v>427300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>433000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>434700</v>
       </c>
-      <c r="G10" s="3">
-        <v>342200</v>
-      </c>
       <c r="H10" s="3">
+        <v>344000</v>
+      </c>
+      <c r="I10" s="3">
         <v>270000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>258900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>246500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>218600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>175100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>207600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +965,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>42100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1151400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1154500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1128600</v>
       </c>
-      <c r="G17" s="3">
-        <v>1197700</v>
-      </c>
       <c r="H17" s="3">
+        <v>1195900</v>
+      </c>
+      <c r="I17" s="3">
         <v>771800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>771700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>717000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>706300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>668200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>588200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>664200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E18" s="3">
         <v>173900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>194900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>169900</v>
       </c>
-      <c r="G18" s="3">
-        <v>18900</v>
-      </c>
       <c r="H18" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I18" s="3">
         <v>120900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>70000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1176,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>3500</v>
-      </c>
       <c r="H20" s="3">
+        <v>17800</v>
+      </c>
+      <c r="I20" s="3">
         <v>25500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E21" s="3">
         <v>250600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>275600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>250200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100200</v>
-      </c>
       <c r="H21" s="3">
+        <v>116300</v>
+      </c>
+      <c r="I21" s="3">
         <v>176900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>131600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>104800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E22" s="3">
         <v>21400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9000</v>
       </c>
-      <c r="G22" s="3">
-        <v>14300</v>
-      </c>
       <c r="H22" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E23" s="3">
         <v>155100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>183800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>163300</v>
       </c>
-      <c r="G23" s="3">
-        <v>8100</v>
-      </c>
       <c r="H23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I23" s="3">
         <v>102400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>106600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>87200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>83400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E24" s="3">
         <v>33200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36200</v>
       </c>
-      <c r="G24" s="3">
-        <v>11300</v>
-      </c>
       <c r="H24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E26" s="3">
         <v>121900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>143200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>127100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I26" s="3">
         <v>81400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>86000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>67000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E27" s="3">
         <v>119800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>142000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>125600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I27" s="3">
         <v>79800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>84400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1545,8 +1605,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3500</v>
-      </c>
       <c r="H32" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-25500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E33" s="3">
         <v>119800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>142000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>125600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I33" s="3">
         <v>79800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>84400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E35" s="3">
         <v>119800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>142000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>125600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I35" s="3">
         <v>79800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>84400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1965,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>688500</v>
+      </c>
+      <c r="E41" s="3">
         <v>723600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>702500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>624700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>672800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>328600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>618500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>566400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>611300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>487500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>432200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>604500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1953,181 +2042,196 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>797400</v>
+      </c>
+      <c r="E43" s="3">
         <v>816000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>854800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>832200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>785800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>560900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>558000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>483900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>432000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>472500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>427200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>464000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1336900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1361500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1388400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1336900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1192400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>808200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>759200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>722200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>690300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>677200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>679700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>655300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E45" s="3">
         <v>145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>151800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>178600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>157600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>138800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>148500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>153900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>117700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>115400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>136600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>108900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3046100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3097500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2972400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2808600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1836500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2084200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1926400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1851300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1752600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1675700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1834400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2271,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>917900</v>
+      </c>
+      <c r="E48" s="3">
         <v>905900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>936400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>969200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1020900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>585500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>605900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>614500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>628900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>624100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>634300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>641700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6248700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6208100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6352600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6454000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6468400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1998200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2016700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2024200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2048500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2043800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2041200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2046800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2447,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E52" s="3">
         <v>88900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10268900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10249000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10458500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10471100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10367400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4485000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4773700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4627200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4589000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4479400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4408100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4585900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,81 +2617,85 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>497700</v>
+      </c>
+      <c r="E57" s="3">
         <v>548200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>652800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>641300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>643800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>512700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>461400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>412300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>360100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>363800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>342600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>340300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E58" s="3">
         <v>30700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>230900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>230800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>231000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>230600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -2570,172 +2703,187 @@
       <c r="O58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>470700</v>
+      </c>
+      <c r="E59" s="3">
         <v>473900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>437400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>412100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>446600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>255200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>246500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>227900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>230900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>236400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>235200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>239400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1002200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1052800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1120800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1056600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1095300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>768900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>938800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>871000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>822000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>830800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>578400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>580300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1989700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2165200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2132500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2057400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1913600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>647300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>789000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>786900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>840400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>840200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1125100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1364300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>854400</v>
+      </c>
+      <c r="E62" s="3">
         <v>859200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>889500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>933300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>950300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>341100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>349400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>351500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>349600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>356500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>357600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>341200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3880700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4109100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4181800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4087400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3997400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1790200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2108700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2043100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2044600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2057500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2089000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2315300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2130000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2051700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1996600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1927500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1912600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2186400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2130300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2064100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2010700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1972500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1919700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1903800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6388200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6139900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6276700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6383700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6370000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2694800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2665000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2584100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2544400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2421900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2319100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2270600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E81" s="3">
         <v>119800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>142000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>125600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I81" s="3">
         <v>79800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>84400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3626,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E83" s="3">
         <v>74100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>30500</v>
       </c>
       <c r="I83" s="3">
         <v>30500</v>
       </c>
       <c r="J83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K83" s="3">
         <v>31800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E89" s="3">
         <v>133100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>99600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>125500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>120300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>102700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-47000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-138200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,28 +4146,29 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-22000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-22300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-297800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-12200</v>
       </c>
       <c r="J96" s="3">
         <v>-12200</v>
@@ -3947,16 +4180,19 @@
         <v>-12200</v>
       </c>
       <c r="M96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-12200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4320,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-51600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>383200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-398700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-76700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-68400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-255500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>188700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-24400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E102" s="3">
         <v>21100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>77800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>344200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-289900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>52100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>123800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-172300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>273100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1224100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1244700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1325300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1349400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1298500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1216600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>892700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>886900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>814100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>780500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>758200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>634100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>734200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>821600</v>
+      </c>
+      <c r="E9" s="3">
         <v>831100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>898000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>916400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>863800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>872600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>622700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>628000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>567600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>561900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>532600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>459000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>526600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>402500</v>
+      </c>
+      <c r="E10" s="3">
         <v>413600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>427300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>433000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>434700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>344000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>270000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>258900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>246500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>218600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>225600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>175100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>207600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,52 +985,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>16800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>42100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1155200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1093000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1151400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1154500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1128600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1195900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>771800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>771700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>717000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>706300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>668200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>588200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>664200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E18" s="3">
         <v>151700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>173900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>194900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>169900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>120900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>70000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1210,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>17800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>25500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>178700</v>
+      </c>
+      <c r="E21" s="3">
         <v>232000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>250600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>275600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>250200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>116300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>176900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>104800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E22" s="3">
         <v>43400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>111600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>155100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>183800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>163300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>102400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>106600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>83400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E24" s="3">
         <v>8900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>33200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>102700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>121900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>143200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>127100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>81400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>86000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>66300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>101500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>119800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>142000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>125600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>79800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>84400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1608,8 +1669,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-17800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-25500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>101500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>119800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>142000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>125600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>79800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>84400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>101500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>119800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>142000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>125600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>79800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>84400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1143300</v>
+      </c>
+      <c r="E41" s="3">
         <v>688500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>723600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>702500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>624700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>672800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>328600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>618500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>566400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>611300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>487500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>432200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>604500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2045,193 +2135,208 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1028300</v>
+      </c>
+      <c r="E43" s="3">
         <v>797400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>816000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>854800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>832200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>785800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>560900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>558000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>483900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>432000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>472500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>427200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>464000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1732500</v>
+      </c>
+      <c r="E44" s="3">
         <v>1336900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1361500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1388400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1336900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1192400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>808200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>759200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>722200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>690300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>677200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>679700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>655300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E45" s="3">
         <v>177700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>145000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>151800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>178600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>157600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>138800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>148500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>153900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>117700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>115400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>136600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>108900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4109100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3046100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3097500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2972400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2808600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1836500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2084200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1926400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1851300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1752600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1675700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1834400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="E48" s="3">
         <v>917900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>905900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>936400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>969200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1020900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>585500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>605900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>614500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>628900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>624100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>634300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>641700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10941300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6248700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6208100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6352600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6454000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6468400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1998200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2016700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2024200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2048500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2043800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2041200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2046800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E52" s="3">
         <v>101800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>72000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>64800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16547400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10268900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10249000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10458500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10471100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10367400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4485000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4773700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4627200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4589000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4479400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4408100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4585900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,87 +2748,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>666700</v>
+      </c>
+      <c r="E57" s="3">
         <v>497700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>548200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>652800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>641300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>643800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>512700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>461400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>412300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>360100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>363800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>342600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>340300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E58" s="3">
         <v>33800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>230900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>230800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>231000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>230600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
@@ -2706,184 +2840,199 @@
       <c r="P58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>664900</v>
+      </c>
+      <c r="E59" s="3">
         <v>470700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>473900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>437400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>412100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>446600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>255200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>246500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>227900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>230900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>236400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>235200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>239400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1002200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1052800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1120800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1056600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1095300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>768900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>938800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>871000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>822000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>830800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>578400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>580300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7210600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1989700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2165200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2132500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2057400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1913600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>647300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>789000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>786900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>840400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>840200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1125100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1364300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1475300</v>
+      </c>
+      <c r="E62" s="3">
         <v>854400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>859200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>889500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>933300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>950300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>341100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>349400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>351500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>349600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>356500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>357600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>341200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10126800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3880700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4109100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4181800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4087400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3997400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1790200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2108700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2043100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2044600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2057500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2089000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2315300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2100900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2130000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2051700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1996600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1927500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1912600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2186400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2130300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2064100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2010700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1972500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1919700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1903800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6420600</v>
+      </c>
+      <c r="E76" s="3">
         <v>6388200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6139900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6276700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6383700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6370000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2694800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2665000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2584100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2544400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2421900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2319100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2270600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>101500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>119800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>142000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>125600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>79800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>84400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E83" s="3">
         <v>77000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>30500</v>
       </c>
       <c r="J83" s="3">
         <v>30500</v>
       </c>
       <c r="K83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="L83" s="3">
         <v>31800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E89" s="3">
         <v>198200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>133100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>99600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>121500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>125500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>120300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4865500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-47000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-138200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,31 +4380,32 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-23600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-22000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-22300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-297800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-12200</v>
       </c>
       <c r="K96" s="3">
         <v>-12200</v>
@@ -4183,16 +4417,19 @@
         <v>-12200</v>
       </c>
       <c r="N96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-12200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5203600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-232800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-51600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>383200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-398700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-255500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>188700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E101" s="3">
         <v>28700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-24400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>454800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>77800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>344200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-289900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>52100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-172300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>273100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1768600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1224100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1244700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1325300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1349400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1298500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1216600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>892700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>886900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>814100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>780500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>758200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>634100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>734200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1193400</v>
+      </c>
+      <c r="E9" s="3">
         <v>821600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>831100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>898000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>916400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>863800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>872600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>622700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>628000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>567600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>561900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>532600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>459000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>526600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>575200</v>
+      </c>
+      <c r="E10" s="3">
         <v>402500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>413600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>427300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>433000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>434700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>344000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>270000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>258900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>246500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>218600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>225600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>175100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>207600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>42100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1155200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1093000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1151400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1154500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1128600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1195900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>771800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>771700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>717000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>706300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>668200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>588200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>664200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E18" s="3">
         <v>68900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>151700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>173900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>194900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>169900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>120900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E20" s="3">
         <v>33300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>296500</v>
+      </c>
+      <c r="E21" s="3">
         <v>178700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>232000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>250600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>275600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>250200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>116300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>176900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>104800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E22" s="3">
         <v>95400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>43400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E23" s="3">
         <v>6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>155100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>183800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>163300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>102400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>106600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E24" s="3">
         <v>12300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>102700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>121900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>143200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>127100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>81400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>66300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>119800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>142000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>125600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>79800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +1733,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-33300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>119800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>142000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>125600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>79800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>119800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>142000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>125600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>79800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>659600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1143300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>688500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>723600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>702500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>624700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>672800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>328600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>618500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>566400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>611300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>487500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>432200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>604500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2138,205 +2228,220 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1013900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1028300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>797400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>816000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>854800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>832200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>785800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>560900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>558000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>483900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>432000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>472500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>427200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>464000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1576100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1732500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1336900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1361500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1388400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1336900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1192400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>808200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>759200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>722200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>690300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>677200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>679700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>655300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E45" s="3">
         <v>205000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>177700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>145000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>151800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>178600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>157600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>138800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>148500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>153900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>117700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>115400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>136600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>108900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3475000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4109100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3046100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3097500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2972400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2808600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1836500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2084200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1926400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1851300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1752600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1675700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1834400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1392800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1374000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>917900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>905900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>936400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>969200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1020900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>585500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>605900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>614500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>628900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>624100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>634300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>641700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10858600</v>
+      </c>
+      <c r="E49" s="3">
         <v>10941300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6248700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6208100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6352600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6454000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6468400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1998200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2016700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2024200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2048500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2043800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2041200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2046800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E52" s="3">
         <v>123000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15857800</v>
+      </c>
+      <c r="E54" s="3">
         <v>16547400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10268900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10249000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10458500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10471100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10367400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4485000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4773700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4627200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4589000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4479400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4408100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4585900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,93 +2879,97 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>678500</v>
+      </c>
+      <c r="E57" s="3">
         <v>666700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>497700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>548200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>652800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>641300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>643800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>512700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>461400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>412300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>360100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>363800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>342600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>340300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E58" s="3">
         <v>74200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>230900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>230800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>231000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>230600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -2843,196 +2977,211 @@
       <c r="Q58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E59" s="3">
         <v>664900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>470700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>473900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>437400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>412100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>446600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>255200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>246500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>227900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>230900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>236400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>235200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>239400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1381100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1405800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1002200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1052800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1120800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1056600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1095300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>768900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>938800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>871000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>822000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>830800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>578400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>580300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6609700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7210600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1989700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2165200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2132500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2057400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1913600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>647300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>789000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>786900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>840400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>840200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1125100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1364300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1430100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1475300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>854400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>859200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>889500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>933300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>950300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>341100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>349400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>351500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>349600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>356500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>357600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>341200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9447500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10126800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3880700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4109100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4181800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4087400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3997400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1790200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2108700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2043100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2044600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2057500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2089000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2315300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2109800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2100900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2130000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2051700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1996600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1927500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1912600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2186400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2130300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2064100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2010700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1972500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1919700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1903800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6410300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6420600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6388200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6139900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6276700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6383700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6370000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2694800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2665000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2584100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2544400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2421900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2319100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2270600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>119800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>142000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>125600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>79800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E83" s="3">
         <v>76500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>77000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>74100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>30500</v>
       </c>
       <c r="K83" s="3">
         <v>30500</v>
       </c>
       <c r="L83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="M83" s="3">
         <v>31800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E89" s="3">
         <v>106200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>133100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>110800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>99600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>125500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>120300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4865500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-138200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4390,25 +4624,25 @@
         <v>-23200</v>
       </c>
       <c r="E96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-23000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-22000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-297800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-12200</v>
       </c>
       <c r="L96" s="3">
         <v>-12200</v>
@@ -4420,16 +4654,19 @@
         <v>-12200</v>
       </c>
       <c r="O96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-638500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5203600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-232800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>383200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-398700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-255500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>188700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E101" s="3">
         <v>10500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>28700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-24400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>25900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-483700</v>
+      </c>
+      <c r="E102" s="3">
         <v>454800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-35100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>77800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>344200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-289900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>123800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>55300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-172300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>273100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1649800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1768600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1224100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1244700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1325300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1349400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1298500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1216600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>892700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>886900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>814100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>780500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>758200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>634100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>734200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>738200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1193400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>821600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>831100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>898000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>916400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>863800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>872600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>622700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>628000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>567600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>561900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>532600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>459000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>526600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>543400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>554800</v>
+      </c>
+      <c r="E10" s="3">
         <v>575200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>402500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>413600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>427300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>433000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>434700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>344000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>258900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>246500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>218600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>175100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>207600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>194800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14000</v>
+        <v>83100</v>
       </c>
       <c r="E14" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>70600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>42100</v>
+      </c>
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>42100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1670200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1617000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1155200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1093000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1151400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1154500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1128600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1195900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>771800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>771700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>717000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>706300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>668200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>588200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>664200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>676500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>151600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>68900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>151700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>173900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>194900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>169900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>120900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>33300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E21" s="3">
         <v>296500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>178700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>232000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>250600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>275600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>250200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>116300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>176900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E22" s="3">
         <v>116400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>95400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="E23" s="3">
         <v>43100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>111600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>155100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>163300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E24" s="3">
         <v>9900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="E26" s="3">
         <v>33200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>102700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>121900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>143200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>127100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>81400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E27" s="3">
         <v>32100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>119800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>142000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>125600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>79800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>84400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1736,8 +1797,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-33300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E33" s="3">
         <v>32100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>119800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>142000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>125600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>79800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>84400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E35" s="3">
         <v>32100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>119800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>142000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>125600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>79800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>84400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>540600</v>
+      </c>
+      <c r="E41" s="3">
         <v>659600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1143300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>688500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>723600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>702500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>624700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>672800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>328600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>566400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>611300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>487500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>432200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>604500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>331400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2231,217 +2321,232 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>918700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1013900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1028300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>797400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>816000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>854800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>832200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>785800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>560900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>558000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>483900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>432000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>472500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>427200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>464000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>461400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1302800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1576100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1732500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1336900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1361500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1388400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1336900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1192400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>808200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>759200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>722200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>690300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>677200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>679700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>655300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>678400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>609900</v>
+      </c>
+      <c r="E45" s="3">
         <v>225400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>177700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>145000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>151800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>178600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>157600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>138800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>148500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>153900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>117700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>115400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>136600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>108900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3372000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3475000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4109100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3046100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3097500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2972400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2808600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1836500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2084200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1926400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1851300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1752600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1675700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1834400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1607700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1223400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1392800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1374000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>917900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>905900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>936400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>969200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1020900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>585500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>605900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>614500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>628900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>624100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>634300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>641700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10590300</v>
+      </c>
+      <c r="E49" s="3">
         <v>10858600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10941300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6248700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6208100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6352600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6454000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6468400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1998200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2016700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2024200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2048500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2043800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2041200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2046800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2068500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E52" s="3">
         <v>131400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>60300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15365000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15857800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16547400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10268900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10249000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10458500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10471100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10367400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4485000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4773700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4627200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4589000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4479400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4408100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4585900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4430700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,99 +3010,103 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E57" s="3">
         <v>678500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>666700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>497700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>548200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>652800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>641300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>643800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>512700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>461400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>412300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>360100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>363800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>342600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>340300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>337000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>72600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>74200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>230900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>230800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>231000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>230600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>713700</v>
+      </c>
+      <c r="E59" s="3">
         <v>630000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>664900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>470700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>473900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>437400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>412100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>446600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>255200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>246500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>227900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>230900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>236400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>235200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>239400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>222900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1305400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1381100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1405800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1002200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1052800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1120800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1056600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1095300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>768900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>938800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>871000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>822000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>830800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>578400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>580300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>560500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6493900</v>
+      </c>
+      <c r="E61" s="3">
         <v>6609700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7210600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1989700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2165200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2132500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2057400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1913600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>647300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>789000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>786900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>840400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>840200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1125100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1364300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1136900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1369400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1430100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1475300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>854400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>859200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>889500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>933300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>950300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>341100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>349400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>351500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>349600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>356500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>357600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>341200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>352900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9195800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9447500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10126800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3880700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4109100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4181800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4087400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3997400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1790200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2108700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2043100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2044600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2057500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2089000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2315300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2079600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1947100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2109800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2100900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2130000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2051700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1996600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1927500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1912600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2186400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2130300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2064100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2010700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1972500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1919700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1903800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1886700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6169200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6410300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6420600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6388200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6139900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6276700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6383700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6370000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2694800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2665000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2584100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2544400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2421900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2319100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2270600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2351100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E81" s="3">
         <v>32100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>119800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>142000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>125600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>79800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>84400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E83" s="3">
         <v>137000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>77000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>74100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>30500</v>
       </c>
       <c r="L83" s="3">
         <v>30500</v>
       </c>
       <c r="M83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="N83" s="3">
         <v>31800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>186700</v>
+      </c>
+      <c r="E89" s="3">
         <v>221100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>198200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>133100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>99600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>125500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>137300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4865500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-138200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4627,25 +4861,25 @@
         <v>-23200</v>
       </c>
       <c r="F96" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-23600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-22300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-297800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-12200</v>
       </c>
       <c r="M96" s="3">
         <v>-12200</v>
@@ -4657,16 +4891,19 @@
         <v>-12200</v>
       </c>
       <c r="P96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-12200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-638500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5203600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-232800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>383200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-398700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-76700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>188700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-93600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>28700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-24400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>25900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-483700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>454800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>77800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-48100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>344200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-289900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>123800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-172300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>273100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38400</v>
       </c>
     </row>
